--- a/src/Excel/CambioSimpleAPlus.xlsx
+++ b/src/Excel/CambioSimpleAPlus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -67,12 +67,40 @@
   </si>
   <si>
     <t>5 mar. 2023, 20:06:01</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 12:02:40</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 12:31:03</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 12:41:05</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 13:33:50</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:53:50</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:55:50</t>
+  </si>
+  <si>
+    <t>AAACT2306557M69RW</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 14:57:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,10 +435,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -450,13 +478,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/CambioSimpleAPlus.xlsx
+++ b/src/Excel/CambioSimpleAPlus.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1124DB9F-E724-4D2D-9855-45FB9E0AA529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696A3F8-7F3E-45E7-8A58-822C92F90846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CambioSimpleAPlus" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1008955421</t>
-  </si>
-  <si>
     <t>AC001002</t>
   </si>
   <si>
@@ -60,47 +57,34 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:06:01</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:02:40</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:31:03</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:41:05</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:33:50</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:53:50</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:55:50</t>
-  </si>
-  <si>
-    <t>AAACT2306557M69RW</t>
+    <t>1010642058</t>
+  </si>
+  <si>
+    <t>AAACT23066X27W5JP</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>6 mar. 2023, 14:57:59</t>
+    <t>7 mar. 2023, 10:18:34</t>
+  </si>
+  <si>
+    <t>7 mar. 2023, 10:18:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +135,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,18 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -455,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -472,22 +481,53 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
